--- a/assets/schedule.xlsx
+++ b/assets/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s12600\Documents\Work\projects\BED3\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BED3\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA901460-D3A0-441E-BE82-C24F3AE7722D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD51F1-E5EE-4085-806A-AEF708FBFE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{1F253A05-7803-472C-A439-9F3387A57B0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{1F253A05-7803-472C-A439-9F3387A57B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="V25" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
     <t>week</t>
   </si>
@@ -110,15 +110,9 @@
     <t>Porteføljeteori</t>
   </si>
   <si>
-    <t>OAN</t>
-  </si>
-  <si>
     <t>Kapitalverdimodellen</t>
   </si>
   <si>
-    <t>Aksjeprising</t>
-  </si>
-  <si>
     <t>Gruppeøving 2</t>
   </si>
   <si>
@@ -128,24 +122,12 @@
     <t>13, 16</t>
   </si>
   <si>
-    <t>Utbyttepolitikk og skatt</t>
-  </si>
-  <si>
     <t>Gruppeøving 3 + innlevering</t>
   </si>
   <si>
-    <t>Kapitalmarked og selskapskontroll</t>
-  </si>
-  <si>
-    <t>14, 15, 21</t>
-  </si>
-  <si>
     <t>Ingen forelesning</t>
   </si>
   <si>
-    <t>Markedseffisiens og atferdsfinans</t>
-  </si>
-  <si>
     <t>Bærekraftige investeringer</t>
   </si>
   <si>
@@ -186,6 +168,24 @@
   </si>
   <si>
     <t>Frist</t>
+  </si>
+  <si>
+    <t>AØ</t>
+  </si>
+  <si>
+    <t>Porteføljeteori/Kapitalmarkedsteori</t>
+  </si>
+  <si>
+    <t>Kapitalmarkedet/Markedseffisiens/Prising</t>
+  </si>
+  <si>
+    <t>Utbyttepolitikk</t>
+  </si>
+  <si>
+    <t>11, 12</t>
+  </si>
+  <si>
+    <t>7, 14, 15, 21</t>
   </si>
 </sst>
 </file>
@@ -561,17 +561,18 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -617,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -640,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -663,7 +664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -686,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -706,7 +707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -729,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -743,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>11</v>
@@ -752,7 +753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -763,19 +764,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -786,10 +787,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -798,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
@@ -806,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -818,7 +819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
@@ -829,19 +830,19 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -852,10 +853,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>17</v>
@@ -864,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -872,7 +873,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -884,7 +885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -895,19 +896,19 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10</v>
       </c>
@@ -918,19 +919,19 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>11</v>
       </c>
@@ -940,20 +941,17 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
       </c>
@@ -964,139 +962,137 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>12</v>
       </c>
+      <c r="B19" s="1">
+        <v>46098</v>
+      </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <v>46105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" s="1">
-        <v>46108</v>
+        <v>46105</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
-        <v>46112</v>
+        <v>46108</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>14</v>
       </c>
-      <c r="B23" s="1">
-        <v>46115</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>15</v>
       </c>
+      <c r="B24" s="1">
+        <v>46119</v>
+      </c>
       <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -1105,64 +1101,64 @@
         <v>19</v>
       </c>
       <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>46122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1">
-        <v>46133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>17</v>
       </c>
       <c r="B27" s="1">
-        <v>46136</v>
+        <v>46129</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -1171,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
